--- a/pin_map.xlsx
+++ b/pin_map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\FPGA\spin_clock_ice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="249">
   <si>
     <t>FNC</t>
   </si>
@@ -724,18 +719,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>D1 / config</t>
-  </si>
-  <si>
-    <t>D2 / config</t>
-  </si>
-  <si>
-    <t>D3 / config</t>
-  </si>
-  <si>
-    <t>D0 / config</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
@@ -755,12 +738,36 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>ice_ss</t>
+  </si>
+  <si>
+    <t>D3 / ice_sclk</t>
+  </si>
+  <si>
+    <t>D2 / ice_si</t>
+  </si>
+  <si>
+    <t>D1 / ice_so</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1164,7 +1171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,10 +1203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,7 +1237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1407,11 +1412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1979,6 +1984,9 @@
       <c r="K10" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="O10" s="1" t="s">
         <v>147</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>151</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2237,7 +2245,7 @@
         <v>155</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N14" t="s">
         <v>233</v>
@@ -2310,10 +2318,10 @@
         <v>8</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>170</v>
@@ -2400,16 +2408,16 @@
         <v>7</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>233</v>
@@ -2453,7 +2461,7 @@
         <v>182</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>233</v>
@@ -2491,6 +2499,12 @@
       <c r="F20" s="32">
         <v>9</v>
       </c>
+      <c r="J20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="N20" s="5" t="s">
         <v>233</v>
       </c>
@@ -2526,6 +2540,9 @@
       <c r="F21" s="32">
         <v>10</v>
       </c>
+      <c r="N21" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="O21" s="1" t="s">
         <v>186</v>
       </c>
@@ -2637,6 +2654,9 @@
       <c r="F24" s="32">
         <v>21</v>
       </c>
+      <c r="N24" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="O24" s="1" t="s">
         <v>201</v>
       </c>
@@ -2676,6 +2696,9 @@
       <c r="F25" s="31">
         <v>13</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="O25" s="1" t="s">
         <v>206</v>
       </c>
@@ -2716,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>211</v>
@@ -2818,8 +2841,8 @@
       <c r="G29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H29" t="s">
-        <v>234</v>
+      <c r="H29" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>223</v>
@@ -2857,8 +2880,11 @@
       <c r="G30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H30" t="s">
-        <v>235</v>
+      <c r="H30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>226</v>
@@ -2896,8 +2922,11 @@
       <c r="G31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H31" t="s">
-        <v>236</v>
+      <c r="H31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>229</v>
@@ -2931,10 +2960,10 @@
         <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" t="s">
-        <v>237</v>
+        <v>226</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>231</v>
@@ -2950,7 +2979,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -2966,7 +2995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1">
+    <row r="34" spans="1:11" s="1" customFormat="1">
       <c r="A34" s="37" t="s">
         <v>78</v>
       </c>
@@ -2986,7 +3015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:11">
       <c r="A35" s="37" t="s">
         <v>80</v>
       </c>
@@ -3005,8 +3034,14 @@
       <c r="F35" s="31">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1">
+      <c r="J35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1">
       <c r="A36" s="37" t="s">
         <v>90</v>
       </c>
@@ -3025,8 +3060,14 @@
       <c r="F36" s="31">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1">
+      <c r="J36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1">
       <c r="A37" s="37" t="s">
         <v>91</v>
       </c>
@@ -3045,8 +3086,14 @@
       <c r="F37" s="31">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1">
+      <c r="J37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1">
       <c r="A38" s="37" t="s">
         <v>92</v>
       </c>
@@ -3064,7 +3111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1">
+    <row r="39" spans="1:11" s="1" customFormat="1">
       <c r="A39" s="37" t="s">
         <v>111</v>
       </c>
@@ -3084,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1">
+    <row r="40" spans="1:11" s="1" customFormat="1">
       <c r="A40" s="37" t="s">
         <v>93</v>
       </c>
@@ -3104,7 +3151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1">
+    <row r="41" spans="1:11" s="1" customFormat="1">
       <c r="A41" s="37" t="s">
         <v>94</v>
       </c>
@@ -3124,7 +3171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1">
+    <row r="42" spans="1:11" s="1" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
@@ -3144,7 +3191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1">
+    <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="37" t="s">
         <v>79</v>
       </c>
@@ -3180,7 +3227,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1">
+    <row r="45" spans="1:11" s="1" customFormat="1">
       <c r="A45" s="37" t="s">
         <v>95</v>
       </c>
@@ -3200,7 +3247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1">
+    <row r="46" spans="1:11" s="1" customFormat="1">
       <c r="A46" s="37" t="s">
         <v>96</v>
       </c>
@@ -3220,7 +3267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1">
+    <row r="47" spans="1:11" s="1" customFormat="1">
       <c r="A47" s="37" t="s">
         <v>97</v>
       </c>
@@ -3240,7 +3287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1">
+    <row r="48" spans="1:11" s="1" customFormat="1">
       <c r="A48" s="37" t="s">
         <v>98</v>
       </c>
@@ -3605,7 +3652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
